--- a/Document/K4 Flux Cleanner System IO List.xlsx
+++ b/Document/K4 Flux Cleanner System IO List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\156607\Amkor_Project\FluxTool_CleanerSystem_K4\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F88409-8BD6-4220-894B-DBD81FD486AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{654FC149-CBBB-41EE-BA8B-341AEE53E64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1004,6 +1004,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1012,9 +1015,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,22 +1356,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1697,22 +1697,22 @@
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
@@ -2112,22 +2112,22 @@
   <sheetData>
     <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="20"/>
+      <c r="D3" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="18" t="s">
+      <c r="E3" s="20"/>
+      <c r="F3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="20" t="s">
+      <c r="G3" s="20"/>
+      <c r="H3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="19"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -2205,7 +2205,9 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="18" t="s">
+        <v>178</v>
+      </c>
       <c r="F7" s="6" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2225,9 @@
       <c r="D8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="18" t="s">
+        <v>179</v>
+      </c>
       <c r="F8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2241,8 +2245,8 @@
       <c r="D9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="21" t="s">
-        <v>178</v>
+      <c r="E9" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>24</v>
@@ -2263,9 +2267,7 @@
       <c r="D10" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="21" t="s">
-        <v>179</v>
-      </c>
+      <c r="E10" s="3"/>
       <c r="F10" s="6" t="s">
         <v>28</v>
       </c>
@@ -2285,9 +2287,7 @@
       <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="21" t="s">
-        <v>180</v>
-      </c>
+      <c r="E11" s="3"/>
       <c r="F11" s="6" t="s">
         <v>32</v>
       </c>
@@ -2459,22 +2459,22 @@
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="18" t="s">
+      <c r="E21" s="20"/>
+      <c r="F21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="G21" s="19"/>
-      <c r="H21" s="18" t="s">
+      <c r="G21" s="20"/>
+      <c r="H21" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="I21" s="19"/>
+      <c r="I21" s="20"/>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
